--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/200人毎時_プライバシデータ流出比/200人-時間ごとNPD比.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/200人毎時_プライバシデータ流出比/200人-時間ごとNPD比.xlsx
@@ -862,11 +862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="545859776"/>
-        <c:axId val="545861344"/>
+        <c:axId val="195537056"/>
+        <c:axId val="195537448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="545859776"/>
+        <c:axId val="195537056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23"/>
@@ -895,7 +895,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -908,7 +908,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="3200"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
                   <a:t>時刻</a:t>
                 </a:r>
               </a:p>
@@ -928,7 +928,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -966,7 +966,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -981,12 +981,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545861344"/>
+        <c:crossAx val="195537448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545861344"/>
+        <c:axId val="195537448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1014,7 +1014,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1027,17 +1027,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
                   <a:t>NPD</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="3200"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
                   <a:t>比</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9587268275620847E-2"/>
+              <c:y val="0.2927710352445882"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1051,7 +1058,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1104,7 +1111,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545859776"/>
+        <c:crossAx val="195537056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2009,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/200人毎時_プライバシデータ流出比/200人-時間ごとNPD比.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/200人毎時_プライバシデータ流出比/200人-時間ごとNPD比.xlsx
@@ -862,11 +862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195537056"/>
-        <c:axId val="195537448"/>
+        <c:axId val="167681520"/>
+        <c:axId val="167681912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195537056"/>
+        <c:axId val="167681520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23"/>
@@ -909,7 +909,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
-                  <a:t>時刻</a:t>
+                  <a:t>サービス開始時刻</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -966,7 +966,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -981,12 +981,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195537448"/>
+        <c:crossAx val="167681912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195537448"/>
+        <c:axId val="167681912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1096,7 +1096,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1111,7 +1111,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195537056"/>
+        <c:crossAx val="167681520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
